--- a/Python/Certs Create/students.xlsx
+++ b/Python/Certs Create/students.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\Certs Create\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\OneDrive - jpcplantandSafety LtD\JPC CENTRAL\Frank\Certificates\Certs Create\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E80643A-5AC3-4472-A2B4-0B6FAE694CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921EBFB1-305A-4C59-B4DB-38A4526D2192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="408" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -48,49 +48,58 @@
     <t>Validation</t>
   </si>
   <si>
-    <t>Abrasive Wheels</t>
-  </si>
-  <si>
-    <t>Nahid</t>
-  </si>
-  <si>
-    <t>3 Years</t>
-  </si>
-  <si>
-    <t>Hasan</t>
-  </si>
-  <si>
-    <t>4 Years</t>
-  </si>
-  <si>
-    <t>Liam dash er vai</t>
-  </si>
-  <si>
     <t>Template</t>
   </si>
   <si>
-    <t>Aaron Vai</t>
-  </si>
-  <si>
-    <t>Sophia Barit Nai</t>
-  </si>
-  <si>
-    <t>Aaron Kobalai</t>
-  </si>
-  <si>
-    <t>Sophia Jabali</t>
-  </si>
-  <si>
-    <t>Arif boss Khaba Lai</t>
-  </si>
-  <si>
-    <t>Ki Ba Course er Nam</t>
+    <t>Level 1 Health and Safety</t>
+  </si>
+  <si>
+    <t>Mariusz Zielinski</t>
+  </si>
+  <si>
+    <t>Christopher Pedro</t>
+  </si>
+  <si>
+    <t>Ralf Kesselring</t>
+  </si>
+  <si>
+    <t>Iain Norris</t>
+  </si>
+  <si>
+    <t>Andrea Kelly</t>
+  </si>
+  <si>
+    <t>John Lordan</t>
+  </si>
+  <si>
+    <t>Dragos Gheorghiu</t>
+  </si>
+  <si>
+    <t>Nicholas Fitzpatrick</t>
+  </si>
+  <si>
+    <t>Lutz Kern</t>
+  </si>
+  <si>
+    <t>Maggie Crous</t>
+  </si>
+  <si>
+    <t>Sarah Murphy</t>
+  </si>
+  <si>
+    <t>Tsvetan Shishmanov</t>
+  </si>
+  <si>
+    <t>Agnieszka Skrzypczynska</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-14809]d/m/yyyy;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -149,19 +158,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,123 +470,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="13.77734375" style="1"/>
+    <col min="1" max="1" width="22" style="7" customWidth="1"/>
+    <col min="2" max="2" width="45.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="13.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>11</v>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
+      <c r="A2" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3">
-        <v>45876</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9">
+        <v>45912</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9">
+        <v>45915</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3">
-        <v>45912</v>
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9">
+        <v>45915</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9">
+        <v>45915</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9">
+        <v>45915</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="9">
+        <v>45916</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="9">
+        <v>45916</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="9">
+        <v>45916</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="9">
+        <v>45916</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3">
-        <v>45913</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2">
-        <v>999</v>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45916</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="9">
+        <v>45917</v>
       </c>
     </row>
   </sheetData>
